--- a/medicine/Psychotrope/Thé_à_Maurice/Thé_à_Maurice.xlsx
+++ b/medicine/Psychotrope/Thé_à_Maurice/Thé_à_Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Maurice</t>
+          <t>Thé_à_Maurice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé joue un rôle important dans la culture de la république de Maurice.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Maurice</t>
+          <t>Thé_à_Maurice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'île Maurice est un producteur de thé[1], au départ à petite échelle lorsque les Français ont introduit la plante vers 1765, puis plus tard sous la domination britannique où l'échelle de culture du thé augmente[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'île Maurice est un producteur de thé, au départ à petite échelle lorsque les Français ont introduit la plante vers 1765, puis plus tard sous la domination britannique où l'échelle de culture du thé augmente.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Maurice</t>
+          <t>Thé_à_Maurice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mauriciens consomment généralement du thé noir, souvent avec du lait et du sucre[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mauriciens consomment généralement du thé noir, souvent avec du lait et du sucre. 
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Maurice</t>
+          <t>Thé_à_Maurice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois producteurs de thé de dominent le marché local :  Bois Chéri[1], Chartreuse, Corson et Kuan Fu Tea[3]. Le thé le plus consommé sur l'île est le thé noir nature, suivi du thé à la vanille[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois producteurs de thé de dominent le marché local :  Bois Chéri, Chartreuse, Corson et Kuan Fu Tea. Le thé le plus consommé sur l'île est le thé noir nature, suivi du thé à la vanille.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_Maurice</t>
+          <t>Thé_à_Maurice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Route du Thé est un parcours touristique traçant la production de thé sur l'île[1].
-Mariage Frères produit un thé vanillé appelé Bois Chéri[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Route du Thé est un parcours touristique traçant la production de thé sur l'île.
+Mariage Frères produit un thé vanillé appelé Bois Chéri.
 </t>
         </is>
       </c>
